--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,18 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Slpi</t>
   </si>
   <si>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H2">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I2">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J2">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.180323590688</v>
+        <v>10.82680833333333</v>
       </c>
       <c r="N2">
-        <v>10.180323590688</v>
+        <v>32.480425</v>
       </c>
       <c r="O2">
-        <v>0.4350147307784115</v>
+        <v>0.41426114354272</v>
       </c>
       <c r="P2">
-        <v>0.4350147307784115</v>
+        <v>0.41426114354272</v>
       </c>
       <c r="Q2">
-        <v>9.18372131865722</v>
+        <v>11.15523234625278</v>
       </c>
       <c r="R2">
-        <v>9.18372131865722</v>
+        <v>100.397091116275</v>
       </c>
       <c r="S2">
-        <v>0.005624321262886294</v>
+        <v>0.005401157516511343</v>
       </c>
       <c r="T2">
-        <v>0.005624321262886294</v>
+        <v>0.005401157516511343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H3">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I3">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J3">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.97180838619431</v>
+        <v>7.982139666666666</v>
       </c>
       <c r="N3">
-        <v>7.97180838619431</v>
+        <v>23.946419</v>
       </c>
       <c r="O3">
-        <v>0.3406428143511535</v>
+        <v>0.3054169062964268</v>
       </c>
       <c r="P3">
-        <v>0.3406428143511535</v>
+        <v>0.3054169062964268</v>
       </c>
       <c r="Q3">
-        <v>7.191408600362123</v>
+        <v>8.224272552028555</v>
       </c>
       <c r="R3">
-        <v>7.191408600362123</v>
+        <v>74.01845296825699</v>
       </c>
       <c r="S3">
-        <v>0.004404183325875779</v>
+        <v>0.003982040905418572</v>
       </c>
       <c r="T3">
-        <v>0.004404183325875779</v>
+        <v>0.003982040905418573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H4">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I4">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J4">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.930991303576581</v>
+        <v>1.074853</v>
       </c>
       <c r="N4">
-        <v>0.930991303576581</v>
+        <v>3.224559</v>
       </c>
       <c r="O4">
-        <v>0.0397821275202745</v>
+        <v>0.04112660159960868</v>
       </c>
       <c r="P4">
-        <v>0.0397821275202745</v>
+        <v>0.04112660159960868</v>
       </c>
       <c r="Q4">
-        <v>0.8398519561756783</v>
+        <v>1.107457949186333</v>
       </c>
       <c r="R4">
-        <v>0.8398519561756783</v>
+        <v>9.967121542677001</v>
       </c>
       <c r="S4">
-        <v>0.0005143445724119782</v>
+        <v>0.0005362106893701145</v>
       </c>
       <c r="T4">
-        <v>0.0005143445724119782</v>
+        <v>0.0005362106893701145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9021050496919</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H5">
-        <v>0.9021050496919</v>
+        <v>3.091003</v>
       </c>
       <c r="I5">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J5">
-        <v>0.01292903634049859</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.3191269662659</v>
+        <v>1.298284666666667</v>
       </c>
       <c r="N5">
-        <v>4.3191269662659</v>
+        <v>3.894854</v>
       </c>
       <c r="O5">
-        <v>0.1845603273501604</v>
+        <v>0.04967566378740233</v>
       </c>
       <c r="P5">
-        <v>0.1845603273501604</v>
+        <v>0.04967566378740233</v>
       </c>
       <c r="Q5">
-        <v>3.896306246528925</v>
+        <v>1.337667266506889</v>
       </c>
       <c r="R5">
-        <v>3.896306246528925</v>
+        <v>12.039005398562</v>
       </c>
       <c r="S5">
-        <v>0.002386187179324541</v>
+        <v>0.0006476737899154421</v>
       </c>
       <c r="T5">
-        <v>0.002386187179324541</v>
+        <v>0.0006476737899154421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.87146708160211</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H6">
-        <v>68.87146708160211</v>
+        <v>3.091003</v>
       </c>
       <c r="I6">
-        <v>0.9870709636595014</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J6">
-        <v>0.9870709636595014</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>10.180323590688</v>
+        <v>0.059201</v>
       </c>
       <c r="N6">
-        <v>10.180323590688</v>
+        <v>0.177603</v>
       </c>
       <c r="O6">
-        <v>0.4350147307784115</v>
+        <v>0.002265180393317443</v>
       </c>
       <c r="P6">
-        <v>0.4350147307784115</v>
+        <v>0.002265180393317443</v>
       </c>
       <c r="Q6">
-        <v>701.133821056126</v>
+        <v>0.06099682286766668</v>
       </c>
       <c r="R6">
-        <v>701.133821056126</v>
+        <v>0.5489714058090001</v>
       </c>
       <c r="S6">
-        <v>0.4293904095155252</v>
+        <v>2.953353530333929E-05</v>
       </c>
       <c r="T6">
-        <v>0.4293904095155252</v>
+        <v>2.953353530333929E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.87146708160211</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H7">
-        <v>68.87146708160211</v>
+        <v>3.091003</v>
       </c>
       <c r="I7">
-        <v>0.9870709636595014</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="J7">
-        <v>0.9870709636595014</v>
+        <v>0.01303805003366037</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.97180838619431</v>
+        <v>4.893938666666667</v>
       </c>
       <c r="N7">
-        <v>7.97180838619431</v>
+        <v>14.681816</v>
       </c>
       <c r="O7">
-        <v>0.3406428143511535</v>
+        <v>0.1872545043805247</v>
       </c>
       <c r="P7">
-        <v>0.3406428143511535</v>
+        <v>0.1872545043805247</v>
       </c>
       <c r="Q7">
-        <v>549.030138850621</v>
+        <v>5.042393033494223</v>
       </c>
       <c r="R7">
-        <v>549.030138850621</v>
+        <v>45.38153730144801</v>
       </c>
       <c r="S7">
-        <v>0.3362386310252777</v>
+        <v>0.002441433597141556</v>
       </c>
       <c r="T7">
-        <v>0.3362386310252777</v>
+        <v>0.002441433597141556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>68.87146708160211</v>
+        <v>5.860603</v>
       </c>
       <c r="H8">
-        <v>68.87146708160211</v>
+        <v>17.581809</v>
       </c>
       <c r="I8">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="J8">
-        <v>0.9870709636595014</v>
+        <v>0.07416120444537262</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.930991303576581</v>
+        <v>10.82680833333333</v>
       </c>
       <c r="N8">
-        <v>0.930991303576581</v>
+        <v>32.480425</v>
       </c>
       <c r="O8">
-        <v>0.0397821275202745</v>
+        <v>0.41426114354272</v>
       </c>
       <c r="P8">
-        <v>0.0397821275202745</v>
+        <v>0.41426114354272</v>
       </c>
       <c r="Q8">
-        <v>64.11873691753233</v>
+        <v>63.45162539875833</v>
       </c>
       <c r="R8">
-        <v>64.11873691753233</v>
+        <v>571.0646285888249</v>
       </c>
       <c r="S8">
-        <v>0.03926778294786252</v>
+        <v>0.03072210536004551</v>
       </c>
       <c r="T8">
-        <v>0.03926778294786252</v>
+        <v>0.03072210536004551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>5.860603</v>
+      </c>
+      <c r="H9">
+        <v>17.581809</v>
+      </c>
+      <c r="I9">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="J9">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.982139666666666</v>
+      </c>
+      <c r="N9">
+        <v>23.946419</v>
+      </c>
+      <c r="O9">
+        <v>0.3054169062964268</v>
+      </c>
+      <c r="P9">
+        <v>0.3054169062964268</v>
+      </c>
+      <c r="Q9">
+        <v>46.78015167688567</v>
+      </c>
+      <c r="R9">
+        <v>421.0213650919709</v>
+      </c>
+      <c r="S9">
+        <v>0.02265008562892252</v>
+      </c>
+      <c r="T9">
+        <v>0.02265008562892252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>5.860603</v>
+      </c>
+      <c r="H10">
+        <v>17.581809</v>
+      </c>
+      <c r="I10">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="J10">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.074853</v>
+      </c>
+      <c r="N10">
+        <v>3.224559</v>
+      </c>
+      <c r="O10">
+        <v>0.04112660159960868</v>
+      </c>
+      <c r="P10">
+        <v>0.04112660159960868</v>
+      </c>
+      <c r="Q10">
+        <v>6.299286716359001</v>
+      </c>
+      <c r="R10">
+        <v>56.693580447231</v>
+      </c>
+      <c r="S10">
+        <v>0.003049998309371968</v>
+      </c>
+      <c r="T10">
+        <v>0.003049998309371968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>5.860603</v>
+      </c>
+      <c r="H11">
+        <v>17.581809</v>
+      </c>
+      <c r="I11">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="J11">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.298284666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.894854</v>
+      </c>
+      <c r="O11">
+        <v>0.04967566378740233</v>
+      </c>
+      <c r="P11">
+        <v>0.04967566378740233</v>
+      </c>
+      <c r="Q11">
+        <v>7.608731012320668</v>
+      </c>
+      <c r="R11">
+        <v>68.478579110886</v>
+      </c>
+      <c r="S11">
+        <v>0.003684007058097138</v>
+      </c>
+      <c r="T11">
+        <v>0.003684007058097138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>68.87146708160211</v>
-      </c>
-      <c r="H9">
-        <v>68.87146708160211</v>
-      </c>
-      <c r="I9">
-        <v>0.9870709636595014</v>
-      </c>
-      <c r="J9">
-        <v>0.9870709636595014</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.3191269662659</v>
-      </c>
-      <c r="N9">
-        <v>4.3191269662659</v>
-      </c>
-      <c r="O9">
-        <v>0.1845603273501604</v>
-      </c>
-      <c r="P9">
-        <v>0.1845603273501604</v>
-      </c>
-      <c r="Q9">
-        <v>297.4646106784419</v>
-      </c>
-      <c r="R9">
-        <v>297.4646106784419</v>
-      </c>
-      <c r="S9">
-        <v>0.1821741401708359</v>
-      </c>
-      <c r="T9">
-        <v>0.1821741401708359</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>5.860603</v>
+      </c>
+      <c r="H12">
+        <v>17.581809</v>
+      </c>
+      <c r="I12">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="J12">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.059201</v>
+      </c>
+      <c r="N12">
+        <v>0.177603</v>
+      </c>
+      <c r="O12">
+        <v>0.002265180393317443</v>
+      </c>
+      <c r="P12">
+        <v>0.002265180393317443</v>
+      </c>
+      <c r="Q12">
+        <v>0.3469535582030001</v>
+      </c>
+      <c r="R12">
+        <v>3.122582023827</v>
+      </c>
+      <c r="S12">
+        <v>0.0001679885062544645</v>
+      </c>
+      <c r="T12">
+        <v>0.0001679885062544645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>5.860603</v>
+      </c>
+      <c r="H13">
+        <v>17.581809</v>
+      </c>
+      <c r="I13">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="J13">
+        <v>0.07416120444537262</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.893938666666667</v>
+      </c>
+      <c r="N13">
+        <v>14.681816</v>
+      </c>
+      <c r="O13">
+        <v>0.1872545043805247</v>
+      </c>
+      <c r="P13">
+        <v>0.1872545043805247</v>
+      </c>
+      <c r="Q13">
+        <v>28.68143163168267</v>
+      </c>
+      <c r="R13">
+        <v>258.132884685144</v>
+      </c>
+      <c r="S13">
+        <v>0.01388701958268102</v>
+      </c>
+      <c r="T13">
+        <v>0.01388701958268102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.375668</v>
+      </c>
+      <c r="I14">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J14">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.82680833333333</v>
+      </c>
+      <c r="N14">
+        <v>32.480425</v>
+      </c>
+      <c r="O14">
+        <v>0.41426114354272</v>
+      </c>
+      <c r="P14">
+        <v>0.41426114354272</v>
+      </c>
+      <c r="Q14">
+        <v>12.18257014432222</v>
+      </c>
+      <c r="R14">
+        <v>109.6431312989</v>
+      </c>
+      <c r="S14">
+        <v>0.005898575508159263</v>
+      </c>
+      <c r="T14">
+        <v>0.005898575508159263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.375668</v>
+      </c>
+      <c r="I15">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J15">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.982139666666666</v>
+      </c>
+      <c r="N15">
+        <v>23.946419</v>
+      </c>
+      <c r="O15">
+        <v>0.3054169062964268</v>
+      </c>
+      <c r="P15">
+        <v>0.3054169062964268</v>
+      </c>
+      <c r="Q15">
+        <v>8.981684481432444</v>
+      </c>
+      <c r="R15">
+        <v>80.835160332892</v>
+      </c>
+      <c r="S15">
+        <v>0.004348765775740916</v>
+      </c>
+      <c r="T15">
+        <v>0.004348765775740917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.375668</v>
+      </c>
+      <c r="I16">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J16">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.074853</v>
+      </c>
+      <c r="N16">
+        <v>3.224559</v>
+      </c>
+      <c r="O16">
+        <v>0.04112660159960868</v>
+      </c>
+      <c r="P16">
+        <v>0.04112660159960868</v>
+      </c>
+      <c r="Q16">
+        <v>1.209448958934667</v>
+      </c>
+      <c r="R16">
+        <v>10.885040630412</v>
+      </c>
+      <c r="S16">
+        <v>0.0005855928529880546</v>
+      </c>
+      <c r="T16">
+        <v>0.0005855928529880546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.375668</v>
+      </c>
+      <c r="I17">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J17">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.298284666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.894854</v>
+      </c>
+      <c r="O17">
+        <v>0.04967566378740233</v>
+      </c>
+      <c r="P17">
+        <v>0.04967566378740233</v>
+      </c>
+      <c r="Q17">
+        <v>1.460859334719111</v>
+      </c>
+      <c r="R17">
+        <v>13.147734012472</v>
+      </c>
+      <c r="S17">
+        <v>0.0007073211145561102</v>
+      </c>
+      <c r="T17">
+        <v>0.0007073211145561102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.375668</v>
+      </c>
+      <c r="I18">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J18">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.059201</v>
+      </c>
+      <c r="N18">
+        <v>0.177603</v>
+      </c>
+      <c r="O18">
+        <v>0.002265180393317443</v>
+      </c>
+      <c r="P18">
+        <v>0.002265180393317443</v>
+      </c>
+      <c r="Q18">
+        <v>0.06661430708933334</v>
+      </c>
+      <c r="R18">
+        <v>0.5995287638040001</v>
+      </c>
+      <c r="S18">
+        <v>3.225341743451971E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.225341743451971E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.125222666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.375668</v>
+      </c>
+      <c r="I19">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="J19">
+        <v>0.01423878536547076</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.893938666666667</v>
+      </c>
+      <c r="N19">
+        <v>14.681816</v>
+      </c>
+      <c r="O19">
+        <v>0.1872545043805247</v>
+      </c>
+      <c r="P19">
+        <v>0.1872545043805247</v>
+      </c>
+      <c r="Q19">
+        <v>5.506770717009778</v>
+      </c>
+      <c r="R19">
+        <v>49.560936453088</v>
+      </c>
+      <c r="S19">
+        <v>0.002666276696591896</v>
+      </c>
+      <c r="T19">
+        <v>0.002666276696591896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H20">
+        <v>212.79055</v>
+      </c>
+      <c r="I20">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J20">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.82680833333333</v>
+      </c>
+      <c r="N20">
+        <v>32.480425</v>
+      </c>
+      <c r="O20">
+        <v>0.41426114354272</v>
+      </c>
+      <c r="P20">
+        <v>0.41426114354272</v>
+      </c>
+      <c r="Q20">
+        <v>767.9474999981943</v>
+      </c>
+      <c r="R20">
+        <v>6911.527499983749</v>
+      </c>
+      <c r="S20">
+        <v>0.3718259990608493</v>
+      </c>
+      <c r="T20">
+        <v>0.3718259990608493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H21">
+        <v>212.79055</v>
+      </c>
+      <c r="I21">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J21">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.982139666666666</v>
+      </c>
+      <c r="N21">
+        <v>23.946419</v>
+      </c>
+      <c r="O21">
+        <v>0.3054169062964268</v>
+      </c>
+      <c r="P21">
+        <v>0.3054169062964268</v>
+      </c>
+      <c r="Q21">
+        <v>566.1746299489388</v>
+      </c>
+      <c r="R21">
+        <v>5095.57166954045</v>
+      </c>
+      <c r="S21">
+        <v>0.2741313011946335</v>
+      </c>
+      <c r="T21">
+        <v>0.2741313011946336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H22">
+        <v>212.79055</v>
+      </c>
+      <c r="I22">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J22">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.074853</v>
+      </c>
+      <c r="N22">
+        <v>3.224559</v>
+      </c>
+      <c r="O22">
+        <v>0.04112660159960868</v>
+      </c>
+      <c r="P22">
+        <v>0.04112660159960868</v>
+      </c>
+      <c r="Q22">
+        <v>76.23952034638333</v>
+      </c>
+      <c r="R22">
+        <v>686.1556831174501</v>
+      </c>
+      <c r="S22">
+        <v>0.03691376796041472</v>
+      </c>
+      <c r="T22">
+        <v>0.03691376796041473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H23">
+        <v>212.79055</v>
+      </c>
+      <c r="I23">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J23">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.298284666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.894854</v>
+      </c>
+      <c r="O23">
+        <v>0.04967566378740233</v>
+      </c>
+      <c r="P23">
+        <v>0.04967566378740233</v>
+      </c>
+      <c r="Q23">
+        <v>92.08756942552223</v>
+      </c>
+      <c r="R23">
+        <v>828.7881248297</v>
+      </c>
+      <c r="S23">
+        <v>0.04458710068437052</v>
+      </c>
+      <c r="T23">
+        <v>0.04458710068437053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H24">
+        <v>212.79055</v>
+      </c>
+      <c r="I24">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J24">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.059201</v>
+      </c>
+      <c r="N24">
+        <v>0.177603</v>
+      </c>
+      <c r="O24">
+        <v>0.002265180393317443</v>
+      </c>
+      <c r="P24">
+        <v>0.002265180393317443</v>
+      </c>
+      <c r="Q24">
+        <v>4.199137783516667</v>
+      </c>
+      <c r="R24">
+        <v>37.79224005165</v>
+      </c>
+      <c r="S24">
+        <v>0.002033144976126514</v>
+      </c>
+      <c r="T24">
+        <v>0.002033144976126514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>70.93018333333333</v>
+      </c>
+      <c r="H25">
+        <v>212.79055</v>
+      </c>
+      <c r="I25">
+        <v>0.897564265576613</v>
+      </c>
+      <c r="J25">
+        <v>0.8975642655766131</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.893938666666667</v>
+      </c>
+      <c r="N25">
+        <v>14.681816</v>
+      </c>
+      <c r="O25">
+        <v>0.1872545043805247</v>
+      </c>
+      <c r="P25">
+        <v>0.1872545043805247</v>
+      </c>
+      <c r="Q25">
+        <v>347.1279668487556</v>
+      </c>
+      <c r="R25">
+        <v>3124.1517016388</v>
+      </c>
+      <c r="S25">
+        <v>0.1680729517002183</v>
+      </c>
+      <c r="T25">
+        <v>0.1680729517002183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.078843</v>
+      </c>
+      <c r="H26">
+        <v>0.236529</v>
+      </c>
+      <c r="I26">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J26">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.82680833333333</v>
+      </c>
+      <c r="N26">
+        <v>32.480425</v>
+      </c>
+      <c r="O26">
+        <v>0.41426114354272</v>
+      </c>
+      <c r="P26">
+        <v>0.41426114354272</v>
+      </c>
+      <c r="Q26">
+        <v>0.8536180494249999</v>
+      </c>
+      <c r="R26">
+        <v>7.682562444824999</v>
+      </c>
+      <c r="S26">
+        <v>0.0004133060971545194</v>
+      </c>
+      <c r="T26">
+        <v>0.0004133060971545195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.078843</v>
+      </c>
+      <c r="H27">
+        <v>0.236529</v>
+      </c>
+      <c r="I27">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J27">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.982139666666666</v>
+      </c>
+      <c r="N27">
+        <v>23.946419</v>
+      </c>
+      <c r="O27">
+        <v>0.3054169062964268</v>
+      </c>
+      <c r="P27">
+        <v>0.3054169062964268</v>
+      </c>
+      <c r="Q27">
+        <v>0.6293358377389999</v>
+      </c>
+      <c r="R27">
+        <v>5.664022539651</v>
+      </c>
+      <c r="S27">
+        <v>0.0003047127917112177</v>
+      </c>
+      <c r="T27">
+        <v>0.0003047127917112179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.078843</v>
+      </c>
+      <c r="H28">
+        <v>0.236529</v>
+      </c>
+      <c r="I28">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J28">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.074853</v>
+      </c>
+      <c r="N28">
+        <v>3.224559</v>
+      </c>
+      <c r="O28">
+        <v>0.04112660159960868</v>
+      </c>
+      <c r="P28">
+        <v>0.04112660159960868</v>
+      </c>
+      <c r="Q28">
+        <v>0.084744635079</v>
+      </c>
+      <c r="R28">
+        <v>0.762701715711</v>
+      </c>
+      <c r="S28">
+        <v>4.103178746381798E-05</v>
+      </c>
+      <c r="T28">
+        <v>4.103178746381799E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.078843</v>
+      </c>
+      <c r="H29">
+        <v>0.236529</v>
+      </c>
+      <c r="I29">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J29">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.298284666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.894854</v>
+      </c>
+      <c r="O29">
+        <v>0.04967566378740233</v>
+      </c>
+      <c r="P29">
+        <v>0.04967566378740233</v>
+      </c>
+      <c r="Q29">
+        <v>0.102360657974</v>
+      </c>
+      <c r="R29">
+        <v>0.921245921766</v>
+      </c>
+      <c r="S29">
+        <v>4.95611404631149E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.956114046311492E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.078843</v>
+      </c>
+      <c r="H30">
+        <v>0.236529</v>
+      </c>
+      <c r="I30">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J30">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.059201</v>
+      </c>
+      <c r="N30">
+        <v>0.177603</v>
+      </c>
+      <c r="O30">
+        <v>0.002265180393317443</v>
+      </c>
+      <c r="P30">
+        <v>0.002265180393317443</v>
+      </c>
+      <c r="Q30">
+        <v>0.004667584443</v>
+      </c>
+      <c r="R30">
+        <v>0.042008259987</v>
+      </c>
+      <c r="S30">
+        <v>2.259958198605287E-06</v>
+      </c>
+      <c r="T30">
+        <v>2.259958198605287E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.078843</v>
+      </c>
+      <c r="H31">
+        <v>0.236529</v>
+      </c>
+      <c r="I31">
+        <v>0.000997694578883182</v>
+      </c>
+      <c r="J31">
+        <v>0.0009976945788831822</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.893938666666667</v>
+      </c>
+      <c r="N31">
+        <v>14.681816</v>
+      </c>
+      <c r="O31">
+        <v>0.1872545043805247</v>
+      </c>
+      <c r="P31">
+        <v>0.1872545043805247</v>
+      </c>
+      <c r="Q31">
+        <v>0.385852806296</v>
+      </c>
+      <c r="R31">
+        <v>3.472675256664</v>
+      </c>
+      <c r="S31">
+        <v>0.0001868228038919066</v>
+      </c>
+      <c r="T31">
+        <v>0.0001868228038919066</v>
       </c>
     </row>
   </sheetData>
